--- a/输出结果_兴义.xlsx
+++ b/输出结果_兴义.xlsx
@@ -108,8 +108,8 @@
   <dimension ref="A1:B1"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.1796875" customWidth="true"/>
-    <col min="2" max="2" width="11.1796875" customWidth="true"/>
+    <col min="1" max="1" width="21.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.5703125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -129,9 +129,9 @@
   <dimension ref="A1:C3"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" customWidth="true"/>
-    <col min="2" max="2" width="12.24609375" customWidth="true"/>
-    <col min="3" max="3" width="2.1796875" customWidth="true"/>
+    <col min="1" max="1" width="20.140625" customWidth="true"/>
+    <col min="2" max="2" width="12.42578125" customWidth="true"/>
+    <col min="3" max="3" width="2.140625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -176,8 +176,8 @@
   <dimension ref="A1:B2"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" customWidth="true"/>
-    <col min="2" max="2" width="11.1796875" customWidth="true"/>
+    <col min="1" max="1" width="10.28515625" customWidth="true"/>
+    <col min="2" max="2" width="12.5703125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
